--- a/探险者微信.xlsx
+++ b/探险者微信.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="7830"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <t>cat</t>
   </si>
   <si>
-    <t>time</t>
+    <t>date</t>
   </si>
   <si>
     <t>title</t>
@@ -627,15 +627,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -656,15 +664,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -672,14 +673,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,9 +686,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,32 +725,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -755,7 +741,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,6 +765,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -786,7 +780,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,187 +808,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,37 +1011,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1060,6 +1035,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1071,6 +1070,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,167 +1099,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1257,11 +1258,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFill="1"/>
   </cellXfs>
   <cellStyles count="50">
@@ -1585,13 +1587,14 @@
   <sheetPr/>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="44.625" customWidth="1"/>
     <col min="4" max="4" width="255.625" customWidth="1"/>
   </cols>
@@ -1637,7 +1640,7 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1645,16 +1648,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1662,16 +1665,16 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1679,16 +1682,16 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1696,16 +1699,16 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1713,16 +1716,16 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1739,7 +1742,7 @@
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1747,16 +1750,16 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1764,16 +1767,16 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1790,7 +1793,7 @@
       <c r="C12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1798,16 +1801,16 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1815,16 +1818,16 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1832,16 +1835,16 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1849,33 +1852,33 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1883,16 +1886,16 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1900,16 +1903,16 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -1917,16 +1920,16 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1934,16 +1937,16 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -1960,7 +1963,7 @@
       <c r="C22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -1968,16 +1971,16 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -1985,16 +1988,16 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -2002,16 +2005,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -2019,16 +2022,16 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -2045,7 +2048,7 @@
       <c r="C27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -2062,7 +2065,7 @@
       <c r="C28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -2070,16 +2073,16 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -2087,16 +2090,16 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -2104,16 +2107,16 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="5" t="s">
         <v>115</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -2121,16 +2124,16 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -2138,16 +2141,16 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -2155,16 +2158,16 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="5" t="s">
         <v>125</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -2172,16 +2175,16 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -2189,16 +2192,16 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="5" t="s">
         <v>132</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -2206,16 +2209,16 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="5" t="s">
         <v>136</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -2223,16 +2226,16 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -2240,16 +2243,16 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -2257,16 +2260,16 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E40" s="4" t="s">
@@ -2274,16 +2277,16 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -2291,16 +2294,16 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="5" t="s">
         <v>152</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -2308,16 +2311,16 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="5" t="s">
         <v>156</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -2325,16 +2328,16 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="5" t="s">
         <v>160</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -2342,16 +2345,16 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -2368,7 +2371,7 @@
       <c r="C46" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -2385,7 +2388,7 @@
       <c r="C47" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="5" t="s">
         <v>169</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -2402,7 +2405,7 @@
       <c r="C48" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -2410,16 +2413,16 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="5" t="s">
         <v>175</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -2436,7 +2439,7 @@
       <c r="C50" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E50" s="4" t="s">
@@ -2453,7 +2456,7 @@
       <c r="C51" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="5" t="s">
         <v>183</v>
       </c>
       <c r="E51" s="4" t="s">
@@ -2470,7 +2473,7 @@
       <c r="C52" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -2487,7 +2490,7 @@
       <c r="C53" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="5" t="s">
         <v>190</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -2495,16 +2498,16 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -2512,16 +2515,16 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -2529,16 +2532,16 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="5" t="s">
         <v>201</v>
       </c>
       <c r="E56" s="4" t="s">
